--- a/Data Files/RawData/Edit Task.xlsx
+++ b/Data Files/RawData/Edit Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Katalon Studio\Katalon Mobile\Data Files\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8028CB6-575E-4038-B413-D7F64F879B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408917B5-9F51-4D67-8229-262A0A870CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>P</t>
   </si>
@@ -84,9 +84,6 @@
     <t>day</t>
   </si>
   <si>
-    <t>strHours</t>
-  </si>
-  <si>
     <t>strMinutes</t>
   </si>
   <si>
@@ -94,6 +91,21 @@
   </si>
   <si>
     <t>strHoursF</t>
+  </si>
+  <si>
+    <t>TaskTitleEdit</t>
+  </si>
+  <si>
+    <t>YourTaskEdit</t>
+  </si>
+  <si>
+    <t>Katalon Studio day 1</t>
+  </si>
+  <si>
+    <t>Katalon Studio day 2</t>
+  </si>
+  <si>
+    <t>Katalon Studio day 3</t>
   </si>
 </sst>
 </file>
@@ -411,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -425,10 +437,10 @@
     <col min="5" max="5" width="23.46484375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.19921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.19921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.19921875" customWidth="1"/>
+    <col min="8" max="10" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -454,19 +466,22 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K1" t="s">
         <v>18</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
         <v>19</v>
       </c>
-      <c r="K1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L1" t="s">
-        <v>22</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -477,7 +492,7 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
@@ -492,19 +507,22 @@
         <v>10</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2">
-        <v>11</v>
-      </c>
-      <c r="K2">
         <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>20</v>
       </c>
       <c r="L2">
         <v>13</v>
       </c>
+      <c r="M2">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -515,7 +533,7 @@
         <v>14</v>
       </c>
       <c r="D3">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
         <v>15</v>
@@ -530,19 +548,22 @@
         <v>16</v>
       </c>
       <c r="I3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
-      </c>
-      <c r="J3">
-        <v>9</v>
-      </c>
-      <c r="K3">
-        <v>50</v>
       </c>
       <c r="L3">
         <v>15</v>
       </c>
+      <c r="M3">
+        <v>50</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -553,7 +574,7 @@
         <v>13</v>
       </c>
       <c r="D4">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
@@ -568,16 +589,19 @@
         <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4">
-        <v>3</v>
-      </c>
-      <c r="K4">
-        <v>10</v>
+        <v>26</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>20</v>
       </c>
       <c r="L4">
         <v>16</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Data Files/RawData/Edit Task.xlsx
+++ b/Data Files/RawData/Edit Task.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\moham\Katalon Studio\Katalon Mobile\Data Files\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408917B5-9F51-4D67-8229-262A0A870CCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57279D88-2FC6-402E-A45B-6CD66B1EF058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13695" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
